--- a/基本信息.xlsx
+++ b/基本信息.xlsx
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
